--- a/sample_schedule.xlsx
+++ b/sample_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_n\10Gs\kadai\05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gs\kadai\05\submit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E39037-6111-4C77-B692-9F47638B435E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4B33E-BC95-4700-B180-04F47C0485B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18036" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1956" yWindow="1128" windowWidth="15720" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 2月" sheetId="6" r:id="rId1"/>
@@ -551,7 +551,22 @@
     <xf numFmtId="20" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,29 +575,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="55" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,7 +910,7 @@
   <dimension ref="B1:AX34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -957,111 +957,111 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53">
+      <c r="E1" s="46">
         <v>43497</v>
       </c>
-      <c r="F1" s="53"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="51" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="45" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="49" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="45" t="s">
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="46"/>
+      <c r="R3" s="51"/>
       <c r="S3" s="31" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="32"/>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="49" t="s">
+      <c r="V3" s="45"/>
+      <c r="W3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="45" t="s">
+      <c r="X3" s="49"/>
+      <c r="Y3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="49" t="s">
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="45" t="s">
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="49" t="s">
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="45" t="s">
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="49" t="s">
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="45" t="s">
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="49" t="s">
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="45" t="s">
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="45" t="s">
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
     </row>
     <row r="4" spans="2:50" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -4554,114 +4554,124 @@
     </row>
     <row r="34" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="45" t="s">
+      <c r="D34" s="49"/>
+      <c r="E34" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="51" t="s">
+      <c r="F34" s="51"/>
+      <c r="G34" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="47" t="s">
+      <c r="H34" s="53"/>
+      <c r="I34" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="49" t="s">
+      <c r="J34" s="45"/>
+      <c r="K34" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="45" t="s">
+      <c r="L34" s="49"/>
+      <c r="M34" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="49" t="s">
+      <c r="N34" s="51"/>
+      <c r="O34" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="45" t="s">
+      <c r="P34" s="49"/>
+      <c r="Q34" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="46"/>
+      <c r="R34" s="51"/>
       <c r="S34" s="31" t="s">
         <v>12</v>
       </c>
       <c r="T34" s="32"/>
-      <c r="U34" s="47" t="s">
+      <c r="U34" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="V34" s="48"/>
-      <c r="W34" s="49" t="s">
+      <c r="V34" s="45"/>
+      <c r="W34" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="45" t="s">
+      <c r="X34" s="49"/>
+      <c r="Y34" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="49" t="s">
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="45" t="s">
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="49" t="s">
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="45" t="s">
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="49" t="s">
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="50"/>
-      <c r="AK34" s="45" t="s">
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AL34" s="46"/>
-      <c r="AM34" s="49" t="s">
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="45" t="s">
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AP34" s="46"/>
-      <c r="AQ34" s="49" t="s">
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AR34" s="50"/>
-      <c r="AS34" s="45" t="s">
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AT34" s="46"/>
-      <c r="AU34" s="45" t="s">
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="54"/>
+      <c r="AX34" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AW34:AX34"/>
+    <mergeCell ref="AU34:AV34"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AO3:AP3"/>
@@ -4678,27 +4688,17 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="AW34:AX34"/>
-    <mergeCell ref="AU34:AV34"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sample_schedule.xlsx
+++ b/sample_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gs\kadai\05\submit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4B33E-BC95-4700-B180-04F47C0485B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A480D64-F879-459B-BB47-B5571E49E517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1956" yWindow="1128" windowWidth="15720" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5292" yWindow="804" windowWidth="15720" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 2月" sheetId="6" r:id="rId1"/>
@@ -551,22 +551,7 @@
     <xf numFmtId="20" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="55" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,14 +560,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="55" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,7 +910,7 @@
   <dimension ref="B1:AX34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="T1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -957,111 +957,111 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46">
+      <c r="E1" s="53">
         <v>43497</v>
       </c>
-      <c r="F1" s="46"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="44" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="48" t="s">
+      <c r="J3" s="48"/>
+      <c r="K3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50" t="s">
+      <c r="L3" s="50"/>
+      <c r="M3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="48" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50" t="s">
+      <c r="P3" s="50"/>
+      <c r="Q3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="51"/>
+      <c r="R3" s="46"/>
       <c r="S3" s="31" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="32"/>
-      <c r="U3" s="44" t="s">
+      <c r="U3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="48" t="s">
+      <c r="V3" s="48"/>
+      <c r="W3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="50" t="s">
+      <c r="X3" s="50"/>
+      <c r="Y3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="48" t="s">
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="50" t="s">
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="48" t="s">
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="50" t="s">
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="48" t="s">
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="50" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="48" t="s">
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="50" t="s">
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="48" t="s">
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="50" t="s">
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
     </row>
     <row r="4" spans="2:50" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -4554,103 +4554,135 @@
     </row>
     <row r="34" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52" t="s">
+      <c r="F34" s="46"/>
+      <c r="G34" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="44" t="s">
+      <c r="H34" s="52"/>
+      <c r="I34" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="48" t="s">
+      <c r="J34" s="48"/>
+      <c r="K34" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50" t="s">
+      <c r="L34" s="50"/>
+      <c r="M34" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N34" s="51"/>
-      <c r="O34" s="48" t="s">
+      <c r="N34" s="46"/>
+      <c r="O34" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="50" t="s">
+      <c r="P34" s="50"/>
+      <c r="Q34" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="51"/>
+      <c r="R34" s="46"/>
       <c r="S34" s="31" t="s">
         <v>12</v>
       </c>
       <c r="T34" s="32"/>
-      <c r="U34" s="44" t="s">
+      <c r="U34" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="V34" s="45"/>
-      <c r="W34" s="48" t="s">
+      <c r="V34" s="48"/>
+      <c r="W34" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="50" t="s">
+      <c r="X34" s="50"/>
+      <c r="Y34" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="48" t="s">
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="50" t="s">
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="48" t="s">
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="50" t="s">
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="48" t="s">
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="50" t="s">
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="48" t="s">
+      <c r="AL34" s="46"/>
+      <c r="AM34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="50" t="s">
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="48" t="s">
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="50" t="s">
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AT34" s="46"/>
+      <c r="AU34" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="54"/>
-      <c r="AX34" s="54"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AQ34:AR34"/>
+    <mergeCell ref="AS34:AT34"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="AW34:AX34"/>
     <mergeCell ref="AU34:AV34"/>
     <mergeCell ref="U3:V3"/>
@@ -4667,38 +4699,6 @@
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="AS34:AT34"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sample_schedule.xlsx
+++ b/sample_schedule.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gs\kadai\05\submit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A480D64-F879-459B-BB47-B5571E49E517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C52F2-9C88-4571-A609-810F3C2B0FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="804" windowWidth="15720" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 2月" sheetId="6" r:id="rId1"/>
+    <sheet name=" 2月 (2)" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">' 2月'!$B$2:$AV$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">' 2月 (2)'!$B$2:$AV$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="26">
   <si>
     <t>歳児</t>
     <phoneticPr fontId="6"/>
@@ -462,7 +464,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +553,18 @@
     <xf numFmtId="20" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="55" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,6 +579,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,166 +929,164 @@
   </sheetPr>
   <dimension ref="B1:AX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T1" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="7.609375" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" style="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="5.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="13" width="5.08984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.453125" style="1" customWidth="1"/>
-    <col min="16" max="22" width="5.08984375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.453125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.36328125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.54296875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.453125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="5.54296875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" style="1" customWidth="1"/>
-    <col min="32" max="36" width="5.453125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6328125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="5.54296875" style="1" customWidth="1"/>
-    <col min="40" max="40" width="6" style="1" customWidth="1"/>
-    <col min="41" max="41" width="5.08984375" style="1" customWidth="1"/>
-    <col min="42" max="44" width="5" style="1" customWidth="1"/>
-    <col min="45" max="45" width="4.453125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="5" style="1" customWidth="1"/>
-    <col min="47" max="47" width="4.453125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="5" style="1" customWidth="1"/>
-    <col min="49" max="49" width="7.453125" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="7.6328125" style="1"/>
+    <col min="1" max="1" width="4.0546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="6" style="44" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="5" style="44" customWidth="1"/>
+    <col min="5" max="6" width="5.109375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="4" style="44" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="4" style="44" customWidth="1"/>
+    <col min="10" max="10" width="5.609375" style="44" customWidth="1"/>
+    <col min="11" max="11" width="4" style="44" customWidth="1"/>
+    <col min="12" max="13" width="5.109375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" style="44" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" style="44" customWidth="1"/>
+    <col min="16" max="22" width="5.109375" style="44" customWidth="1"/>
+    <col min="23" max="23" width="4.44140625" style="44" customWidth="1"/>
+    <col min="24" max="24" width="5" style="44" customWidth="1"/>
+    <col min="25" max="25" width="5.609375" style="44" customWidth="1"/>
+    <col min="26" max="26" width="5.38671875" style="44" customWidth="1"/>
+    <col min="27" max="27" width="4.5546875" style="44" customWidth="1"/>
+    <col min="28" max="28" width="5" style="44" customWidth="1"/>
+    <col min="29" max="29" width="5.44140625" style="44" customWidth="1"/>
+    <col min="30" max="30" width="5.5546875" style="44" customWidth="1"/>
+    <col min="31" max="31" width="4.609375" style="44" customWidth="1"/>
+    <col min="32" max="36" width="5.44140625" style="44" customWidth="1"/>
+    <col min="37" max="37" width="4.609375" style="44" customWidth="1"/>
+    <col min="38" max="38" width="5" style="44" customWidth="1"/>
+    <col min="39" max="39" width="5.5546875" style="44" customWidth="1"/>
+    <col min="40" max="40" width="6" style="44" customWidth="1"/>
+    <col min="41" max="41" width="5.109375" style="44" customWidth="1"/>
+    <col min="42" max="44" width="5" style="44" customWidth="1"/>
+    <col min="45" max="45" width="4.44140625" style="44" customWidth="1"/>
+    <col min="46" max="46" width="5" style="44" customWidth="1"/>
+    <col min="47" max="47" width="4.44140625" style="44" customWidth="1"/>
+    <col min="48" max="48" width="5" style="44" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" style="44" customWidth="1"/>
+    <col min="50" max="16384" width="7.609375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:50" x14ac:dyDescent="0.7">
+      <c r="B1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53">
+      <c r="E1" s="57">
         <v>43497</v>
       </c>
-      <c r="F1" s="53"/>
+      <c r="F1" s="57"/>
     </row>
-    <row r="2" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+    <row r="2" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
-    <row r="3" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2"/>
-      <c r="C3" s="49" t="s">
+    <row r="3" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="45"/>
+      <c r="C3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="51" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="45" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="49" t="s">
+      <c r="N3" s="54"/>
+      <c r="O3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="45" t="s">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="31" t="s">
+      <c r="R3" s="54"/>
+      <c r="S3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="47" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="49" t="s">
+      <c r="V3" s="56"/>
+      <c r="W3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="45" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="49" t="s">
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="45" t="s">
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="49" t="s">
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="45" t="s">
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="49" t="s">
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="45" t="s">
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="49" t="s">
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="45" t="s">
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="45" t="s">
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
     </row>
-    <row r="4" spans="2:50" x14ac:dyDescent="0.45">
-      <c r="B4" s="2"/>
-      <c r="C4" s="5">
+    <row r="4" spans="2:50" x14ac:dyDescent="0.7">
+      <c r="B4" s="45"/>
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -1077,10 +1095,10 @@
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="3">
@@ -1089,10 +1107,10 @@
       <c r="J4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="3">
@@ -1101,10 +1119,10 @@
       <c r="N4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="3">
@@ -1113,10 +1131,10 @@
       <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="22">
         <v>2</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="22">
@@ -1125,10 +1143,10 @@
       <c r="V4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="22">
         <v>2</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y4" s="22">
@@ -1137,10 +1155,10 @@
       <c r="Z4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="22">
         <v>3</v>
       </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AB4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AC4" s="22">
@@ -1149,10 +1167,10 @@
       <c r="AD4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AE4" s="22">
         <v>3</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AF4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AG4" s="22">
@@ -1161,10 +1179,10 @@
       <c r="AH4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AI4" s="20">
+      <c r="AI4" s="22">
         <v>4</v>
       </c>
-      <c r="AJ4" s="21" t="s">
+      <c r="AJ4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AK4" s="22">
@@ -1173,10 +1191,10 @@
       <c r="AL4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AM4" s="20">
+      <c r="AM4" s="22">
         <v>4</v>
       </c>
-      <c r="AN4" s="21" t="s">
+      <c r="AN4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AO4" s="22">
@@ -1185,10 +1203,10 @@
       <c r="AP4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AQ4" s="20">
+      <c r="AQ4" s="22">
         <v>5</v>
       </c>
-      <c r="AR4" s="21" t="s">
+      <c r="AR4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AS4" s="22">
@@ -1206,11 +1224,11 @@
       <c r="AW4" s="6"/>
       <c r="AX4" s="7"/>
     </row>
-    <row r="5" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1219,10 +1237,10 @@
       <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -1231,10 +1249,10 @@
       <c r="J5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -1243,10 +1261,10 @@
       <c r="N5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Q5" s="8" t="s">
@@ -1255,10 +1273,10 @@
       <c r="R5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="U5" s="24" t="s">
@@ -1267,10 +1285,10 @@
       <c r="V5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="X5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="Y5" s="24" t="s">
@@ -1279,10 +1297,10 @@
       <c r="Z5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="27" t="s">
+      <c r="AA5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AB5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="AC5" s="24" t="s">
@@ -1291,10 +1309,10 @@
       <c r="AD5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AE5" s="27" t="s">
+      <c r="AE5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" s="28" t="s">
+      <c r="AF5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="AG5" s="24" t="s">
@@ -1303,10 +1321,10 @@
       <c r="AH5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AI5" s="27" t="s">
+      <c r="AI5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AJ5" s="28" t="s">
+      <c r="AJ5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="AK5" s="24" t="s">
@@ -1315,10 +1333,10 @@
       <c r="AL5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AM5" s="27" t="s">
+      <c r="AM5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AN5" s="28" t="s">
+      <c r="AN5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="AO5" s="24" t="s">
@@ -1327,10 +1345,10 @@
       <c r="AP5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AQ5" s="27" t="s">
+      <c r="AQ5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AR5" s="28" t="s">
+      <c r="AR5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="AS5" s="24" t="s">
@@ -1348,14 +1366,14 @@
       <c r="AW5" s="12"/>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="13">
+    <row r="6" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B6" s="48">
         <v>43497</v>
       </c>
-      <c r="C6" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="C6" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="26">
         <v>0.75</v>
       </c>
       <c r="E6" s="26">
@@ -1364,10 +1382,10 @@
       <c r="F6" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I6" s="26">
@@ -1376,10 +1394,10 @@
       <c r="J6" s="26">
         <v>0.75</v>
       </c>
-      <c r="K6" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L6" s="29">
+      <c r="K6" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L6" s="26">
         <v>0.75</v>
       </c>
       <c r="M6" s="26">
@@ -1388,10 +1406,10 @@
       <c r="N6" s="26">
         <v>0.625</v>
       </c>
-      <c r="O6" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P6" s="29">
+      <c r="O6" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P6" s="26">
         <v>0.625</v>
       </c>
       <c r="Q6" s="26">
@@ -1400,18 +1418,18 @@
       <c r="R6" s="26">
         <v>0.75</v>
       </c>
-      <c r="S6" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T6" s="29">
+      <c r="S6" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T6" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
-      <c r="W6" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X6" s="29">
+      <c r="W6" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X6" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y6" s="26">
@@ -1420,10 +1438,10 @@
       <c r="Z6" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA6" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB6" s="29">
+      <c r="AA6" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB6" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC6" s="26">
@@ -1432,10 +1450,10 @@
       <c r="AD6" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE6" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF6" s="29">
+      <c r="AE6" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF6" s="26">
         <v>0.625</v>
       </c>
       <c r="AG6" s="26">
@@ -1444,22 +1462,22 @@
       <c r="AH6" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI6" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ6" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK6" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL6" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM6" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN6" s="29">
+      <c r="AI6" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK6" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM6" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN6" s="26">
         <v>0.75</v>
       </c>
       <c r="AO6" s="26">
@@ -1468,53 +1486,53 @@
       <c r="AP6" s="26">
         <v>0.625</v>
       </c>
-      <c r="AQ6" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR6" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS6" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT6" s="38">
+      <c r="AQ6" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS6" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT6" s="26">
         <v>0.75</v>
       </c>
       <c r="AU6" s="26"/>
       <c r="AV6" s="34"/>
-      <c r="AW6" s="13">
+      <c r="AW6" s="48">
         <v>43497</v>
       </c>
       <c r="AX6" s="16"/>
     </row>
-    <row r="7" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="13">
+    <row r="7" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B7" s="48">
         <v>43498</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="F7" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="26">
         <v>0.35416666666666669</v>
       </c>
       <c r="J7" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
-      <c r="O7" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P7" s="29">
+      <c r="O7" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P7" s="26">
         <v>0.625</v>
       </c>
       <c r="Q7" s="26">
@@ -1523,18 +1541,18 @@
       <c r="R7" s="26">
         <v>0.75</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
       <c r="U7" s="26">
         <v>0.375</v>
       </c>
       <c r="V7" s="26">
         <v>0.6875</v>
       </c>
-      <c r="W7" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X7" s="29">
+      <c r="W7" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X7" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y7" s="26">
@@ -1543,69 +1561,69 @@
       <c r="Z7" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
       <c r="AC7" s="26">
         <v>0.375</v>
       </c>
       <c r="AD7" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ7" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN7" s="29">
+      <c r="AI7" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ7" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN7" s="26">
         <v>0.75</v>
       </c>
       <c r="AO7" s="26"/>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR7" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="38"/>
+      <c r="AQ7" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR7" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="26"/>
       <c r="AU7" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="AV7" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AW7" s="13">
+      <c r="AW7" s="48">
         <v>43498</v>
       </c>
       <c r="AX7" s="16"/>
     </row>
-    <row r="8" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="13">
+    <row r="8" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B8" s="48">
         <v>43499</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
-      <c r="K8" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L8" s="29">
+      <c r="K8" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L8" s="26">
         <v>0.75</v>
       </c>
       <c r="M8" s="26">
@@ -1614,46 +1632,46 @@
       <c r="N8" s="26">
         <v>0.625</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="26">
         <v>0.41666666666666669</v>
       </c>
       <c r="R8" s="26">
         <v>0.75</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
       <c r="AG8" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="AH8" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AI8" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ8" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN8" s="29">
+      <c r="AI8" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ8" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN8" s="26">
         <v>0.75</v>
       </c>
       <c r="AO8" s="26">
@@ -1662,37 +1680,37 @@
       <c r="AP8" s="26">
         <v>0.625</v>
       </c>
-      <c r="AQ8" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR8" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="38"/>
+      <c r="AQ8" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR8" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="26"/>
       <c r="AU8" s="26"/>
       <c r="AV8" s="34"/>
-      <c r="AW8" s="13">
+      <c r="AW8" s="48">
         <v>43499</v>
       </c>
       <c r="AX8" s="16"/>
     </row>
-    <row r="9" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="13">
+    <row r="9" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B9" s="48">
         <v>43500</v>
       </c>
-      <c r="C9" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="C9" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="26">
         <v>0.75</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="29">
+      <c r="G9" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I9" s="26">
@@ -1701,30 +1719,30 @@
       <c r="J9" s="26">
         <v>0.75</v>
       </c>
-      <c r="K9" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L9" s="29">
+      <c r="K9" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L9" s="26">
         <v>0.75</v>
       </c>
       <c r="M9" s="26">
         <v>0.39583333333333331</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="26">
         <v>0.41666666666666669</v>
       </c>
       <c r="R9" s="26">
         <v>0.75</v>
       </c>
-      <c r="S9" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T9" s="29">
+      <c r="S9" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T9" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U9" s="26">
@@ -1733,10 +1751,10 @@
       <c r="V9" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W9" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X9" s="29">
+      <c r="W9" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X9" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y9" s="26">
@@ -1745,10 +1763,10 @@
       <c r="Z9" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA9" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB9" s="29">
+      <c r="AA9" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB9" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC9" s="26">
@@ -1757,10 +1775,10 @@
       <c r="AD9" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE9" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF9" s="29">
+      <c r="AE9" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF9" s="26">
         <v>0.625</v>
       </c>
       <c r="AG9" s="26">
@@ -1769,65 +1787,65 @@
       <c r="AH9" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI9" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ9" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK9" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL9" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM9" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN9" s="29">
+      <c r="AI9" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ9" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK9" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL9" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM9" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN9" s="26">
         <v>0.75</v>
       </c>
       <c r="AO9" s="26">
         <v>0.39583333333333331</v>
       </c>
-      <c r="AP9" s="36">
+      <c r="AP9" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ9" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR9" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS9" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT9" s="38">
+      <c r="AQ9" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR9" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS9" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT9" s="26">
         <v>0.75</v>
       </c>
       <c r="AU9" s="26"/>
       <c r="AV9" s="34"/>
-      <c r="AW9" s="13">
+      <c r="AW9" s="48">
         <v>43500</v>
       </c>
       <c r="AX9" s="16"/>
     </row>
-    <row r="10" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="13">
+    <row r="10" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B10" s="48">
         <v>43501</v>
       </c>
-      <c r="C10" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="29">
+      <c r="C10" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="26">
         <v>0.75</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="29">
+      <c r="G10" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I10" s="26">
@@ -1836,26 +1854,26 @@
       <c r="J10" s="26">
         <v>0.75</v>
       </c>
-      <c r="K10" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L10" s="29">
+      <c r="K10" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L10" s="26">
         <v>0.75</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P10" s="29">
+      <c r="O10" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P10" s="26">
         <v>0.625</v>
       </c>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
-      <c r="S10" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T10" s="29">
+      <c r="S10" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T10" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U10" s="26">
@@ -1864,10 +1882,10 @@
       <c r="V10" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W10" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X10" s="29">
+      <c r="W10" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X10" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y10" s="26">
@@ -1876,10 +1894,10 @@
       <c r="Z10" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA10" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB10" s="29">
+      <c r="AA10" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB10" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC10" s="26">
@@ -1888,53 +1906,53 @@
       <c r="AD10" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
       <c r="AG10" s="26">
         <v>0.35416666666666669</v>
       </c>
       <c r="AH10" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL10" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL10" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT10" s="38">
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT10" s="26">
         <v>0.75</v>
       </c>
       <c r="AU10" s="26"/>
       <c r="AV10" s="26"/>
-      <c r="AW10" s="13">
+      <c r="AW10" s="48">
         <v>43501</v>
       </c>
       <c r="AX10" s="18"/>
     </row>
-    <row r="11" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="13">
+    <row r="11" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B11" s="48">
         <v>43502</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="29">
+      <c r="G11" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I11" s="26">
@@ -1943,10 +1961,10 @@
       <c r="J11" s="26">
         <v>0.75</v>
       </c>
-      <c r="K11" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L11" s="29">
+      <c r="K11" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L11" s="26">
         <v>0.75</v>
       </c>
       <c r="M11" s="26">
@@ -1955,26 +1973,26 @@
       <c r="N11" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O11" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P11" s="29">
+      <c r="O11" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P11" s="26">
         <v>0.625</v>
       </c>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
-      <c r="S11" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T11" s="29">
+      <c r="S11" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T11" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
-      <c r="W11" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X11" s="29">
+      <c r="W11" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X11" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y11" s="26">
@@ -1983,18 +2001,18 @@
       <c r="Z11" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
       <c r="AC11" s="26">
         <v>0.375</v>
       </c>
       <c r="AD11" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE11" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF11" s="29">
+      <c r="AE11" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF11" s="26">
         <v>0.625</v>
       </c>
       <c r="AG11" s="26">
@@ -2003,49 +2021,49 @@
       <c r="AH11" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI11" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ11" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
+      <c r="AI11" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ11" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
       <c r="AO11" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="AP11" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="38"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="26"/>
       <c r="AU11" s="26"/>
       <c r="AV11" s="34"/>
-      <c r="AW11" s="13">
+      <c r="AW11" s="48">
         <v>43502</v>
       </c>
       <c r="AX11" s="16"/>
     </row>
-    <row r="12" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="13">
+    <row r="12" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B12" s="48">
         <v>43503</v>
       </c>
-      <c r="C12" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D12" s="29">
+      <c r="C12" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="26">
         <v>0.75</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="29">
+      <c r="G12" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I12" s="26">
@@ -2054,22 +2072,22 @@
       <c r="J12" s="26">
         <v>0.75</v>
       </c>
-      <c r="K12" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L12" s="29">
+      <c r="K12" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L12" s="26">
         <v>0.75</v>
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="40"/>
-      <c r="S12" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T12" s="29">
+      <c r="S12" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T12" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U12" s="26">
@@ -2078,18 +2096,18 @@
       <c r="V12" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W12" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X12" s="29">
+      <c r="W12" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X12" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y12" s="26"/>
       <c r="Z12" s="26"/>
-      <c r="AA12" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB12" s="29">
+      <c r="AA12" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB12" s="26">
         <v>0.625</v>
       </c>
       <c r="AC12" s="26">
@@ -2098,10 +2116,10 @@
       <c r="AD12" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE12" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF12" s="29">
+      <c r="AE12" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF12" s="26">
         <v>0.625</v>
       </c>
       <c r="AG12" s="26">
@@ -2110,53 +2128,53 @@
       <c r="AH12" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI12" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ12" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK12" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL12" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
+      <c r="AI12" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ12" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK12" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL12" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT12" s="38">
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT12" s="26">
         <v>0.75</v>
       </c>
       <c r="AU12" s="26"/>
       <c r="AV12" s="34"/>
-      <c r="AW12" s="13">
+      <c r="AW12" s="48">
         <v>43503</v>
       </c>
       <c r="AX12" s="16"/>
     </row>
-    <row r="13" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="13">
+    <row r="13" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B13" s="48">
         <v>43504</v>
       </c>
-      <c r="C13" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="29">
+      <c r="C13" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="26">
         <v>0.75</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="29">
+      <c r="G13" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I13" s="26">
@@ -2165,10 +2183,10 @@
       <c r="J13" s="26">
         <v>0.75</v>
       </c>
-      <c r="K13" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L13" s="29">
+      <c r="K13" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L13" s="26">
         <v>0.75</v>
       </c>
       <c r="M13" s="26">
@@ -2177,10 +2195,10 @@
       <c r="N13" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O13" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P13" s="29">
+      <c r="O13" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P13" s="26">
         <v>0.625</v>
       </c>
       <c r="Q13" s="26">
@@ -2189,10 +2207,10 @@
       <c r="R13" s="26">
         <v>0.75</v>
       </c>
-      <c r="S13" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T13" s="29">
+      <c r="S13" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T13" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U13" s="26">
@@ -2201,10 +2219,10 @@
       <c r="V13" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W13" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X13" s="29">
+      <c r="W13" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X13" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y13" s="26">
@@ -2213,10 +2231,10 @@
       <c r="Z13" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA13" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB13" s="29">
+      <c r="AA13" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB13" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC13" s="26">
@@ -2225,10 +2243,10 @@
       <c r="AD13" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE13" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF13" s="29">
+      <c r="AE13" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF13" s="26">
         <v>0.625</v>
       </c>
       <c r="AG13" s="26">
@@ -2237,22 +2255,22 @@
       <c r="AH13" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI13" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ13" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK13" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL13" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM13" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN13" s="29">
+      <c r="AI13" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ13" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK13" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL13" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM13" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN13" s="26">
         <v>0.75</v>
       </c>
       <c r="AO13" s="26">
@@ -2261,53 +2279,53 @@
       <c r="AP13" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ13" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR13" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS13" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT13" s="38">
+      <c r="AQ13" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR13" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS13" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT13" s="26">
         <v>0.75</v>
       </c>
       <c r="AU13" s="26"/>
       <c r="AV13" s="26"/>
-      <c r="AW13" s="13">
+      <c r="AW13" s="48">
         <v>43504</v>
       </c>
       <c r="AX13" s="16"/>
     </row>
-    <row r="14" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="13">
+    <row r="14" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B14" s="48">
         <v>43505</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="F14" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="26">
         <v>0.33333333333333331</v>
       </c>
       <c r="J14" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P14" s="29">
+      <c r="O14" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P14" s="26">
         <v>0.625</v>
       </c>
       <c r="Q14" s="26">
@@ -2316,85 +2334,85 @@
       <c r="R14" s="26">
         <v>0.75</v>
       </c>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
       <c r="U14" s="26">
         <v>0.375</v>
       </c>
       <c r="V14" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
       <c r="Y14" s="26">
         <v>0.35416666666666669</v>
       </c>
       <c r="Z14" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="35"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="40"/>
       <c r="AC14" s="26">
         <v>0.375</v>
       </c>
       <c r="AD14" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
       <c r="AG14" s="26"/>
       <c r="AH14" s="26"/>
-      <c r="AI14" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ14" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN14" s="29">
+      <c r="AI14" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ14" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN14" s="26">
         <v>0.75</v>
       </c>
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
-      <c r="AQ14" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR14" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="38"/>
+      <c r="AQ14" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR14" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="26"/>
       <c r="AU14" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="AV14" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AW14" s="13">
+      <c r="AW14" s="48">
         <v>43505</v>
       </c>
       <c r="AX14" s="16"/>
     </row>
-    <row r="15" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="13">
+    <row r="15" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B15" s="48">
         <v>43506</v>
       </c>
-      <c r="C15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="C15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="30">
-        <v>0.375</v>
-      </c>
-      <c r="H15" s="29">
+      <c r="G15" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="H15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="I15" s="26">
@@ -2403,10 +2421,10 @@
       <c r="J15" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="L15" s="29">
+      <c r="K15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="L15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="M15" s="26">
@@ -2415,10 +2433,10 @@
       <c r="N15" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="O15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="P15" s="29">
+      <c r="O15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="P15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="Q15" s="26">
@@ -2427,10 +2445,10 @@
       <c r="R15" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="S15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="T15" s="29">
+      <c r="S15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="T15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="U15" s="26">
@@ -2439,10 +2457,10 @@
       <c r="V15" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="W15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="X15" s="29">
+      <c r="W15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="X15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="Y15" s="26">
@@ -2451,10 +2469,10 @@
       <c r="Z15" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AA15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="AB15" s="29">
+      <c r="AA15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AB15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="AC15" s="26">
@@ -2463,10 +2481,10 @@
       <c r="AD15" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AE15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="AF15" s="29">
+      <c r="AE15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AF15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="AG15" s="26">
@@ -2475,10 +2493,10 @@
       <c r="AH15" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AI15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="AJ15" s="29">
+      <c r="AI15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AJ15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="AK15" s="26">
@@ -2487,10 +2505,10 @@
       <c r="AL15" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AM15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="AN15" s="29">
+      <c r="AM15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AN15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="AO15" s="26">
@@ -2499,10 +2517,10 @@
       <c r="AP15" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ15" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="AR15" s="29">
+      <c r="AQ15" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AR15" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="AS15" s="26">
@@ -2513,102 +2531,102 @@
       </c>
       <c r="AU15" s="26"/>
       <c r="AV15" s="34"/>
-      <c r="AW15" s="13">
+      <c r="AW15" s="48">
         <v>43506</v>
       </c>
       <c r="AX15" s="18"/>
     </row>
-    <row r="16" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="13">
+    <row r="16" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B16" s="48">
         <v>43507</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="33"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="26">
         <v>0.41666666666666669</v>
       </c>
       <c r="R16" s="26">
         <v>0.75</v>
       </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
       <c r="U16" s="26">
         <v>0.375</v>
       </c>
       <c r="V16" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
       <c r="Z16" s="26"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
       <c r="AG16" s="26"/>
       <c r="AH16" s="26"/>
-      <c r="AI16" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ16" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN16" s="29">
+      <c r="AI16" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ16" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK16" s="49"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN16" s="26">
         <v>0.75</v>
       </c>
       <c r="AO16" s="26"/>
       <c r="AP16" s="26"/>
-      <c r="AQ16" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR16" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="38"/>
+      <c r="AQ16" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR16" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="26"/>
       <c r="AU16" s="26"/>
       <c r="AV16" s="34"/>
-      <c r="AW16" s="13">
+      <c r="AW16" s="48">
         <v>43507</v>
       </c>
       <c r="AX16" s="18"/>
     </row>
-    <row r="17" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="13">
+    <row r="17" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B17" s="48">
         <v>43508</v>
       </c>
-      <c r="C17" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="C17" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="26">
         <v>0.75</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="29">
+      <c r="G17" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I17" s="26">
@@ -2617,26 +2635,26 @@
       <c r="J17" s="26">
         <v>0.75</v>
       </c>
-      <c r="K17" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L17" s="29">
+      <c r="K17" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L17" s="26">
         <v>0.75</v>
       </c>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P17" s="29">
+      <c r="O17" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P17" s="26">
         <v>0.625</v>
       </c>
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T17" s="29">
+      <c r="S17" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T17" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U17" s="26">
@@ -2645,10 +2663,10 @@
       <c r="V17" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W17" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X17" s="29">
+      <c r="W17" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X17" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y17" s="26">
@@ -2657,10 +2675,10 @@
       <c r="Z17" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA17" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB17" s="29">
+      <c r="AA17" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB17" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC17" s="26">
@@ -2669,65 +2687,65 @@
       <c r="AD17" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
       <c r="AG17" s="26">
         <v>0.35416666666666669</v>
       </c>
       <c r="AH17" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI17" s="36">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ17" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="AK17" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL17" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM17" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN17" s="29">
+      <c r="AI17" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ17" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK17" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL17" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM17" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN17" s="26">
         <v>0.75</v>
       </c>
       <c r="AO17" s="26"/>
       <c r="AP17" s="26"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT17" s="38">
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT17" s="26">
         <v>0.75</v>
       </c>
       <c r="AU17" s="26"/>
       <c r="AV17" s="26"/>
-      <c r="AW17" s="13">
+      <c r="AW17" s="48">
         <v>43508</v>
       </c>
       <c r="AX17" s="16"/>
     </row>
-    <row r="18" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="13">
+    <row r="18" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B18" s="48">
         <v>43509</v>
       </c>
-      <c r="C18" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D18" s="29">
+      <c r="C18" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="26">
         <v>0.75</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="29">
+      <c r="G18" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I18" s="26">
@@ -2736,10 +2754,10 @@
       <c r="J18" s="26">
         <v>0.75</v>
       </c>
-      <c r="K18" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L18" s="29">
+      <c r="K18" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L18" s="26">
         <v>0.75</v>
       </c>
       <c r="M18" s="26">
@@ -2748,26 +2766,26 @@
       <c r="N18" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="26">
         <v>0.35416666666666669</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="26">
         <v>0.625</v>
       </c>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
-      <c r="S18" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T18" s="29">
+      <c r="S18" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T18" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
-      <c r="W18" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X18" s="29">
+      <c r="W18" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X18" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y18" s="26">
@@ -2776,10 +2794,10 @@
       <c r="Z18" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA18" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB18" s="29">
+      <c r="AA18" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB18" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC18" s="26">
@@ -2788,10 +2806,10 @@
       <c r="AD18" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE18" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF18" s="29">
+      <c r="AE18" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF18" s="26">
         <v>0.625</v>
       </c>
       <c r="AG18" s="26">
@@ -2800,53 +2818,53 @@
       <c r="AH18" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL18" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL18" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
       <c r="AO18" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="AP18" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT18" s="38">
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT18" s="26">
         <v>0.75</v>
       </c>
       <c r="AU18" s="26"/>
       <c r="AV18" s="34"/>
-      <c r="AW18" s="13">
+      <c r="AW18" s="48">
         <v>43509</v>
       </c>
       <c r="AX18" s="18"/>
     </row>
-    <row r="19" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="13">
+    <row r="19" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B19" s="48">
         <v>43510</v>
       </c>
-      <c r="C19" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="29">
+      <c r="C19" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="26">
         <v>0.75</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="29">
+      <c r="G19" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I19" s="26">
@@ -2855,26 +2873,26 @@
       <c r="J19" s="26">
         <v>0.75</v>
       </c>
-      <c r="K19" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L19" s="29">
+      <c r="K19" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L19" s="26">
         <v>0.75</v>
       </c>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
       <c r="Q19" s="26">
         <v>0.41666666666666669</v>
       </c>
       <c r="R19" s="26">
         <v>0.75</v>
       </c>
-      <c r="S19" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T19" s="29">
+      <c r="S19" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T19" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U19" s="26">
@@ -2883,10 +2901,10 @@
       <c r="V19" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W19" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X19" s="29">
+      <c r="W19" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X19" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y19" s="26">
@@ -2895,10 +2913,10 @@
       <c r="Z19" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA19" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB19" s="29">
+      <c r="AA19" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB19" s="26">
         <v>0.625</v>
       </c>
       <c r="AC19" s="26">
@@ -2907,10 +2925,10 @@
       <c r="AD19" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE19" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF19" s="29">
+      <c r="AE19" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF19" s="26">
         <v>0.625</v>
       </c>
       <c r="AG19" s="26">
@@ -2919,57 +2937,57 @@
       <c r="AH19" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI19" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ19" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK19" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL19" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
+      <c r="AI19" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ19" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK19" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL19" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
-      <c r="AQ19" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR19" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS19" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT19" s="38">
+      <c r="AQ19" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR19" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS19" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT19" s="26">
         <v>0.75</v>
       </c>
       <c r="AU19" s="26"/>
       <c r="AV19" s="34"/>
-      <c r="AW19" s="13">
+      <c r="AW19" s="48">
         <v>43510</v>
       </c>
       <c r="AX19" s="18"/>
     </row>
-    <row r="20" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="13">
+    <row r="20" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B20" s="48">
         <v>43511</v>
       </c>
-      <c r="C20" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="29">
+      <c r="C20" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="26">
         <v>0.75</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="29">
+      <c r="G20" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I20" s="26">
@@ -2978,10 +2996,10 @@
       <c r="J20" s="26">
         <v>0.75</v>
       </c>
-      <c r="K20" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L20" s="29">
+      <c r="K20" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L20" s="26">
         <v>0.75</v>
       </c>
       <c r="M20" s="26">
@@ -2990,10 +3008,10 @@
       <c r="N20" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O20" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P20" s="29">
+      <c r="O20" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P20" s="26">
         <v>0.625</v>
       </c>
       <c r="Q20" s="26">
@@ -3002,10 +3020,10 @@
       <c r="R20" s="26">
         <v>0.75</v>
       </c>
-      <c r="S20" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T20" s="29">
+      <c r="S20" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T20" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U20" s="26">
@@ -3014,18 +3032,18 @@
       <c r="V20" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W20" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X20" s="29">
+      <c r="W20" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X20" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26"/>
-      <c r="AA20" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB20" s="29">
+      <c r="AA20" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB20" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC20" s="26">
@@ -3034,10 +3052,10 @@
       <c r="AD20" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE20" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF20" s="29">
+      <c r="AE20" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF20" s="26">
         <v>0.625</v>
       </c>
       <c r="AG20" s="26">
@@ -3046,22 +3064,22 @@
       <c r="AH20" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI20" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ20" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK20" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL20" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM20" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN20" s="29">
+      <c r="AI20" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ20" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK20" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL20" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM20" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN20" s="26">
         <v>0.75</v>
       </c>
       <c r="AO20" s="26">
@@ -3070,41 +3088,41 @@
       <c r="AP20" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ20" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR20" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS20" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT20" s="38">
+      <c r="AQ20" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR20" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS20" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT20" s="26">
         <v>0.75</v>
       </c>
       <c r="AU20" s="26"/>
       <c r="AV20" s="34"/>
-      <c r="AW20" s="13">
+      <c r="AW20" s="48">
         <v>43511</v>
       </c>
       <c r="AX20" s="16"/>
     </row>
-    <row r="21" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="13">
+    <row r="21" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B21" s="48">
         <v>43512</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="14">
         <v>0.39583333333333331</v>
       </c>
       <c r="F21" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="14">
         <v>0.625</v>
       </c>
       <c r="I21" s="26">
@@ -3113,14 +3131,14 @@
       <c r="J21" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P21" s="29">
+      <c r="O21" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P21" s="26">
         <v>0.625</v>
       </c>
       <c r="Q21" s="26">
@@ -3129,18 +3147,18 @@
       <c r="R21" s="26">
         <v>0.75</v>
       </c>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
       <c r="U21" s="26">
         <v>0.375</v>
       </c>
       <c r="V21" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W21" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X21" s="29">
+      <c r="W21" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X21" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y21" s="26">
@@ -3149,109 +3167,109 @@
       <c r="Z21" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
       <c r="AC21" s="26">
         <v>0.375</v>
       </c>
       <c r="AD21" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
       <c r="AG21" s="26"/>
       <c r="AH21" s="26"/>
-      <c r="AI21" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ21" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN21" s="29">
+      <c r="AI21" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ21" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK21" s="50"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN21" s="26">
         <v>0.75</v>
       </c>
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
-      <c r="AQ21" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR21" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS21" s="42"/>
-      <c r="AT21" s="43"/>
+      <c r="AQ21" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR21" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="14"/>
       <c r="AU21" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="AV21" s="34">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AW21" s="13">
+      <c r="AW21" s="48">
         <v>43512</v>
       </c>
       <c r="AX21" s="18"/>
     </row>
-    <row r="22" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="13">
+    <row r="22" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B22" s="48">
         <v>43513</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="N22" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
       <c r="Q22" s="26">
         <v>0.41666666666666669</v>
       </c>
       <c r="R22" s="26">
         <v>0.75</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
       <c r="U22" s="26"/>
       <c r="V22" s="26"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ22" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="43"/>
-      <c r="AM22" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN22" s="29">
+      <c r="AI22" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ22" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN22" s="26">
         <v>0.75</v>
       </c>
       <c r="AO22" s="26">
@@ -3260,37 +3278,37 @@
       <c r="AP22" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ22" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR22" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="43"/>
+      <c r="AQ22" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR22" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="14"/>
       <c r="AU22" s="26"/>
       <c r="AV22" s="34"/>
-      <c r="AW22" s="13">
+      <c r="AW22" s="48">
         <v>43513</v>
       </c>
       <c r="AX22" s="18"/>
     </row>
-    <row r="23" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="13">
+    <row r="23" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B23" s="48">
         <v>43514</v>
       </c>
-      <c r="C23" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="29">
+      <c r="C23" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="26">
         <v>0.75</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="29">
+      <c r="G23" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I23" s="26">
@@ -3299,10 +3317,10 @@
       <c r="J23" s="26">
         <v>0.75</v>
       </c>
-      <c r="K23" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L23" s="29">
+      <c r="K23" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L23" s="26">
         <v>0.75</v>
       </c>
       <c r="M23" s="26">
@@ -3311,18 +3329,18 @@
       <c r="N23" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
       <c r="Q23" s="26">
         <v>0.41666666666666669</v>
       </c>
       <c r="R23" s="26">
         <v>0.75</v>
       </c>
-      <c r="S23" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T23" s="29">
+      <c r="S23" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T23" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U23" s="26">
@@ -3331,18 +3349,18 @@
       <c r="V23" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W23" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X23" s="29">
+      <c r="W23" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X23" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
-      <c r="AA23" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB23" s="29">
+      <c r="AA23" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB23" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC23" s="26">
@@ -3351,10 +3369,10 @@
       <c r="AD23" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE23" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF23" s="29">
+      <c r="AE23" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF23" s="26">
         <v>0.625</v>
       </c>
       <c r="AG23" s="26">
@@ -3363,22 +3381,22 @@
       <c r="AH23" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI23" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ23" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK23" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL23" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM23" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN23" s="29">
+      <c r="AI23" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ23" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK23" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL23" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM23" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN23" s="26">
         <v>0.75</v>
       </c>
       <c r="AO23" s="26">
@@ -3387,41 +3405,41 @@
       <c r="AP23" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ23" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR23" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS23" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT23" s="38">
+      <c r="AQ23" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR23" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS23" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT23" s="26">
         <v>0.75</v>
       </c>
       <c r="AU23" s="26"/>
       <c r="AV23" s="34"/>
-      <c r="AW23" s="13">
+      <c r="AW23" s="48">
         <v>43514</v>
       </c>
       <c r="AX23" s="18"/>
     </row>
-    <row r="24" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="13">
+    <row r="24" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B24" s="48">
         <v>43515</v>
       </c>
-      <c r="C24" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D24" s="29">
+      <c r="C24" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="26">
         <v>0.75</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="29">
+      <c r="G24" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I24" s="26">
@@ -3430,26 +3448,26 @@
       <c r="J24" s="26">
         <v>0.75</v>
       </c>
-      <c r="K24" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L24" s="29">
+      <c r="K24" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L24" s="26">
         <v>0.75</v>
       </c>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
-      <c r="O24" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P24" s="29">
+      <c r="O24" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P24" s="26">
         <v>0.625</v>
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
-      <c r="S24" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T24" s="29">
+      <c r="S24" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T24" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U24" s="26">
@@ -3458,10 +3476,10 @@
       <c r="V24" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W24" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X24" s="29">
+      <c r="W24" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X24" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y24" s="26">
@@ -3470,10 +3488,10 @@
       <c r="Z24" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA24" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB24" s="29">
+      <c r="AA24" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB24" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC24" s="26">
@@ -3482,57 +3500,57 @@
       <c r="AD24" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
       <c r="AG24" s="26">
         <v>0.35416666666666669</v>
       </c>
       <c r="AH24" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI24" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ24" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK24" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL24" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
+      <c r="AI24" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ24" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK24" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL24" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
-      <c r="AQ24" s="15"/>
-      <c r="AR24" s="15"/>
-      <c r="AS24" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT24" s="38">
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT24" s="26">
         <v>0.75</v>
       </c>
       <c r="AU24" s="14"/>
       <c r="AV24" s="14"/>
-      <c r="AW24" s="13">
+      <c r="AW24" s="48">
         <v>43515</v>
       </c>
       <c r="AX24" s="16"/>
     </row>
-    <row r="25" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="13">
+    <row r="25" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B25" s="48">
         <v>43516</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="29">
+      <c r="G25" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I25" s="26">
@@ -3541,10 +3559,10 @@
       <c r="J25" s="26">
         <v>0.75</v>
       </c>
-      <c r="K25" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L25" s="29">
+      <c r="K25" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L25" s="26">
         <v>0.75</v>
       </c>
       <c r="M25" s="26">
@@ -3553,18 +3571,18 @@
       <c r="N25" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O25" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P25" s="29">
+      <c r="O25" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P25" s="26">
         <v>0.625</v>
       </c>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T25" s="29">
+      <c r="S25" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T25" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U25" s="26">
@@ -3573,26 +3591,26 @@
       <c r="V25" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
       <c r="Y25" s="26">
         <v>0.35416666666666669</v>
       </c>
       <c r="Z25" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
       <c r="AC25" s="26">
         <v>0.375</v>
       </c>
       <c r="AD25" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE25" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF25" s="29">
+      <c r="AE25" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF25" s="26">
         <v>0.625</v>
       </c>
       <c r="AG25" s="26">
@@ -3601,45 +3619,45 @@
       <c r="AH25" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
       <c r="AO25" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="AP25" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="43"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="14"/>
       <c r="AU25" s="26"/>
       <c r="AV25" s="34"/>
-      <c r="AW25" s="13">
+      <c r="AW25" s="48">
         <v>43516</v>
       </c>
       <c r="AX25" s="18"/>
     </row>
-    <row r="26" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="13">
+    <row r="26" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B26" s="48">
         <v>43517</v>
       </c>
-      <c r="C26" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D26" s="29">
+      <c r="C26" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="26">
         <v>0.75</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="29">
+      <c r="G26" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I26" s="26">
@@ -3648,38 +3666,38 @@
       <c r="J26" s="26">
         <v>0.75</v>
       </c>
-      <c r="K26" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L26" s="29">
+      <c r="K26" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L26" s="26">
         <v>0.75</v>
       </c>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
       <c r="Q26" s="26">
         <v>0.41666666666666669</v>
       </c>
       <c r="R26" s="26">
         <v>0.75</v>
       </c>
-      <c r="S26" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T26" s="29">
+      <c r="S26" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T26" s="26">
         <v>0.77083333333333337</v>
       </c>
-      <c r="U26" s="36">
+      <c r="U26" s="26">
         <v>0.33333333333333331</v>
       </c>
       <c r="V26" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W26" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X26" s="29">
+      <c r="W26" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X26" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y26" s="26">
@@ -3688,10 +3706,10 @@
       <c r="Z26" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA26" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB26" s="29">
+      <c r="AA26" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB26" s="26">
         <v>0.625</v>
       </c>
       <c r="AC26" s="26">
@@ -3700,10 +3718,10 @@
       <c r="AD26" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE26" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF26" s="29">
+      <c r="AE26" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF26" s="26">
         <v>0.625</v>
       </c>
       <c r="AG26" s="26">
@@ -3712,61 +3730,61 @@
       <c r="AH26" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI26" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ26" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK26" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL26" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM26" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN26" s="29">
+      <c r="AI26" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ26" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK26" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL26" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM26" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN26" s="26">
         <v>0.75</v>
       </c>
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
-      <c r="AQ26" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR26" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS26" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT26" s="38">
+      <c r="AQ26" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR26" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS26" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT26" s="26">
         <v>0.75</v>
       </c>
       <c r="AU26" s="26"/>
       <c r="AV26" s="34"/>
-      <c r="AW26" s="13">
+      <c r="AW26" s="48">
         <v>43517</v>
       </c>
       <c r="AX26" s="18"/>
     </row>
-    <row r="27" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="13">
+    <row r="27" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B27" s="48">
         <v>43518</v>
       </c>
-      <c r="C27" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D27" s="29">
+      <c r="C27" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D27" s="26">
         <v>0.75</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="29">
+      <c r="G27" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I27" s="26">
@@ -3775,10 +3793,10 @@
       <c r="J27" s="26">
         <v>0.75</v>
       </c>
-      <c r="K27" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L27" s="29">
+      <c r="K27" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L27" s="26">
         <v>0.75</v>
       </c>
       <c r="M27" s="26">
@@ -3787,10 +3805,10 @@
       <c r="N27" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O27" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P27" s="36">
+      <c r="O27" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P27" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="Q27" s="26">
@@ -3799,10 +3817,10 @@
       <c r="R27" s="26">
         <v>0.75</v>
       </c>
-      <c r="S27" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T27" s="29">
+      <c r="S27" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T27" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U27" s="26">
@@ -3811,18 +3829,18 @@
       <c r="V27" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W27" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X27" s="29">
+      <c r="W27" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X27" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26"/>
-      <c r="AA27" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB27" s="29">
+      <c r="AA27" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB27" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC27" s="26">
@@ -3831,10 +3849,10 @@
       <c r="AD27" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE27" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF27" s="29">
+      <c r="AE27" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF27" s="26">
         <v>0.625</v>
       </c>
       <c r="AG27" s="26">
@@ -3843,22 +3861,22 @@
       <c r="AH27" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI27" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ27" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK27" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL27" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM27" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN27" s="29">
+      <c r="AI27" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ27" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK27" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL27" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM27" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN27" s="26">
         <v>0.75</v>
       </c>
       <c r="AO27" s="26">
@@ -3867,49 +3885,49 @@
       <c r="AP27" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ27" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR27" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS27" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT27" s="38">
+      <c r="AQ27" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR27" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS27" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT27" s="26">
         <v>0.75</v>
       </c>
       <c r="AU27" s="26"/>
       <c r="AV27" s="34"/>
-      <c r="AW27" s="13">
+      <c r="AW27" s="48">
         <v>43518</v>
       </c>
       <c r="AX27" s="16"/>
     </row>
-    <row r="28" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="13">
+    <row r="28" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B28" s="48">
         <v>43519</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>0.75</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
-      <c r="O28" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P28" s="29">
+      <c r="O28" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P28" s="26">
         <v>0.625</v>
       </c>
       <c r="Q28" s="26">
@@ -3918,18 +3936,18 @@
       <c r="R28" s="26">
         <v>0.75</v>
       </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
       <c r="U28" s="26">
         <v>0.375</v>
       </c>
       <c r="V28" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W28" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X28" s="29">
+      <c r="W28" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X28" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y28" s="26">
@@ -3938,109 +3956,109 @@
       <c r="Z28" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
       <c r="AC28" s="26">
         <v>0.375</v>
       </c>
       <c r="AD28" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
       <c r="AH28" s="26"/>
-      <c r="AI28" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ28" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="43"/>
-      <c r="AM28" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN28" s="29">
+      <c r="AI28" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ28" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN28" s="26">
         <v>0.75</v>
       </c>
       <c r="AO28" s="26"/>
       <c r="AP28" s="26"/>
-      <c r="AQ28" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR28" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="43"/>
+      <c r="AQ28" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR28" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="14"/>
       <c r="AU28" s="26"/>
       <c r="AV28" s="34"/>
-      <c r="AW28" s="13">
+      <c r="AW28" s="48">
         <v>43519</v>
       </c>
       <c r="AX28" s="16"/>
     </row>
-    <row r="29" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="13">
+    <row r="29" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B29" s="48">
         <v>43520</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="N29" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
       <c r="Q29" s="26">
         <v>0.41666666666666669</v>
       </c>
       <c r="R29" s="26">
         <v>0.75</v>
       </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
       <c r="U29" s="26"/>
       <c r="V29" s="26"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
       <c r="Y29" s="26">
         <v>0.35416666666666669</v>
       </c>
       <c r="Z29" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
       <c r="AG29" s="26"/>
       <c r="AH29" s="26"/>
-      <c r="AI29" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ29" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN29" s="29">
+      <c r="AI29" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ29" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN29" s="26">
         <v>0.75</v>
       </c>
       <c r="AO29" s="26">
@@ -4049,37 +4067,37 @@
       <c r="AP29" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ29" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR29" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="43"/>
+      <c r="AQ29" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR29" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="14"/>
       <c r="AU29" s="26"/>
       <c r="AV29" s="34"/>
-      <c r="AW29" s="13">
+      <c r="AW29" s="48">
         <v>43520</v>
       </c>
       <c r="AX29" s="18"/>
     </row>
-    <row r="30" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="13">
+    <row r="30" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B30" s="48">
         <v>43521</v>
       </c>
-      <c r="C30" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D30" s="29">
+      <c r="C30" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D30" s="26">
         <v>0.75</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="29">
+      <c r="G30" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I30" s="26">
@@ -4088,10 +4106,10 @@
       <c r="J30" s="26">
         <v>0.75</v>
       </c>
-      <c r="K30" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L30" s="29">
+      <c r="K30" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L30" s="26">
         <v>0.75</v>
       </c>
       <c r="M30" s="26">
@@ -4100,10 +4118,10 @@
       <c r="N30" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O30" s="36">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P30" s="36">
+      <c r="O30" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P30" s="26">
         <v>0.625</v>
       </c>
       <c r="Q30" s="26">
@@ -4112,10 +4130,10 @@
       <c r="R30" s="26">
         <v>0.75</v>
       </c>
-      <c r="S30" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T30" s="29">
+      <c r="S30" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T30" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U30" s="26">
@@ -4124,10 +4142,10 @@
       <c r="V30" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W30" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X30" s="29">
+      <c r="W30" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X30" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y30" s="26">
@@ -4136,10 +4154,10 @@
       <c r="Z30" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA30" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB30" s="29">
+      <c r="AA30" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB30" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC30" s="26">
@@ -4148,10 +4166,10 @@
       <c r="AD30" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE30" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF30" s="29">
+      <c r="AE30" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF30" s="26">
         <v>0.625</v>
       </c>
       <c r="AG30" s="26">
@@ -4160,22 +4178,22 @@
       <c r="AH30" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI30" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ30" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK30" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL30" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM30" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN30" s="29">
+      <c r="AI30" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ30" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK30" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL30" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM30" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN30" s="26">
         <v>0.75</v>
       </c>
       <c r="AO30" s="26">
@@ -4184,41 +4202,41 @@
       <c r="AP30" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ30" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR30" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS30" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT30" s="38">
+      <c r="AQ30" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR30" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS30" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT30" s="26">
         <v>0.75</v>
       </c>
       <c r="AU30" s="26"/>
       <c r="AV30" s="34"/>
-      <c r="AW30" s="13">
+      <c r="AW30" s="48">
         <v>43521</v>
       </c>
       <c r="AX30" s="18"/>
     </row>
-    <row r="31" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="13">
+    <row r="31" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B31" s="48">
         <v>43522</v>
       </c>
-      <c r="C31" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="D31" s="29">
+      <c r="C31" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D31" s="26">
         <v>0.75</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="29">
+      <c r="G31" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I31" s="26">
@@ -4227,10 +4245,10 @@
       <c r="J31" s="26">
         <v>0.75</v>
       </c>
-      <c r="K31" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L31" s="29">
+      <c r="K31" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L31" s="26">
         <v>0.75</v>
       </c>
       <c r="M31" s="26">
@@ -4239,14 +4257,14 @@
       <c r="N31" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T31" s="29">
+      <c r="S31" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T31" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U31" s="26">
@@ -4255,18 +4273,18 @@
       <c r="V31" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W31" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X31" s="29">
+      <c r="W31" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X31" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y31" s="26"/>
       <c r="Z31" s="26"/>
-      <c r="AA31" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB31" s="29">
+      <c r="AA31" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB31" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="AC31" s="26">
@@ -4275,10 +4293,10 @@
       <c r="AD31" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE31" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF31" s="29">
+      <c r="AE31" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF31" s="26">
         <v>0.625</v>
       </c>
       <c r="AG31" s="26">
@@ -4287,53 +4305,53 @@
       <c r="AH31" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI31" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ31" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK31" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AL31" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
+      <c r="AI31" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ31" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK31" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AL31" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
       <c r="AO31" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="AP31" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ31" s="15"/>
-      <c r="AR31" s="15"/>
-      <c r="AS31" s="41">
-        <v>0.375</v>
-      </c>
-      <c r="AT31" s="38">
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="AT31" s="26">
         <v>0.75</v>
       </c>
       <c r="AU31" s="14"/>
       <c r="AV31" s="14"/>
-      <c r="AW31" s="13">
+      <c r="AW31" s="48">
         <v>43522</v>
       </c>
       <c r="AX31" s="16"/>
     </row>
-    <row r="32" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="13">
+    <row r="32" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B32" s="48">
         <v>43523</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="29">
+      <c r="G32" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I32" s="26">
@@ -4342,10 +4360,10 @@
       <c r="J32" s="26">
         <v>0.75</v>
       </c>
-      <c r="K32" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L32" s="29">
+      <c r="K32" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L32" s="26">
         <v>0.75</v>
       </c>
       <c r="M32" s="26">
@@ -4354,26 +4372,26 @@
       <c r="N32" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O32" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="P32" s="29">
+      <c r="O32" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P32" s="26">
         <v>0.625</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
-      <c r="S32" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T32" s="29">
+      <c r="S32" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T32" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
-      <c r="W32" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X32" s="29">
+      <c r="W32" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X32" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y32" s="26">
@@ -4382,18 +4400,18 @@
       <c r="Z32" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
       <c r="AC32" s="26">
         <v>0.375</v>
       </c>
       <c r="AD32" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE32" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF32" s="29">
+      <c r="AE32" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF32" s="26">
         <v>0.625</v>
       </c>
       <c r="AG32" s="26">
@@ -4402,45 +4420,45 @@
       <c r="AH32" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="43"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="29"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="50"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="26"/>
       <c r="AO32" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="AP32" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AQ32" s="15"/>
-      <c r="AR32" s="15"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="43"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="14"/>
       <c r="AU32" s="26"/>
       <c r="AV32" s="34"/>
-      <c r="AW32" s="13">
+      <c r="AW32" s="48">
         <v>43523</v>
       </c>
       <c r="AX32" s="18"/>
     </row>
-    <row r="33" spans="2:50" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="13">
+    <row r="33" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B33" s="48">
         <v>43524</v>
       </c>
-      <c r="C33" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="D33" s="15">
+      <c r="C33" s="50">
+        <v>0.375</v>
+      </c>
+      <c r="D33" s="14">
         <v>0.75</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="29">
+      <c r="G33" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="I33" s="26">
@@ -4449,26 +4467,26 @@
       <c r="J33" s="26">
         <v>0.75</v>
       </c>
-      <c r="K33" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="L33" s="29">
+      <c r="K33" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="L33" s="26">
         <v>0.75</v>
       </c>
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
       <c r="Q33" s="26">
         <v>0.41666666666666669</v>
       </c>
       <c r="R33" s="26">
         <v>0.75</v>
       </c>
-      <c r="S33" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="T33" s="29">
+      <c r="S33" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="T33" s="26">
         <v>0.77083333333333337</v>
       </c>
       <c r="U33" s="26">
@@ -4477,10 +4495,10 @@
       <c r="V33" s="26">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W33" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="X33" s="29">
+      <c r="W33" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="X33" s="26">
         <v>0.72916666666666663</v>
       </c>
       <c r="Y33" s="26">
@@ -4489,10 +4507,10 @@
       <c r="Z33" s="26">
         <v>0.75</v>
       </c>
-      <c r="AA33" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="AB33" s="29">
+      <c r="AA33" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AB33" s="26">
         <v>0.625</v>
       </c>
       <c r="AC33" s="26">
@@ -4501,10 +4519,10 @@
       <c r="AD33" s="26">
         <v>0.75</v>
       </c>
-      <c r="AE33" s="29">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="AF33" s="29">
+      <c r="AE33" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF33" s="26">
         <v>0.625</v>
       </c>
       <c r="AG33" s="26">
@@ -4513,141 +4531,141 @@
       <c r="AH33" s="26">
         <v>0.75</v>
       </c>
-      <c r="AI33" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ33" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AK33" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="AL33" s="43">
-        <v>0.75</v>
-      </c>
-      <c r="AM33" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN33" s="29">
+      <c r="AI33" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ33" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AK33" s="50">
+        <v>0.375</v>
+      </c>
+      <c r="AL33" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="AM33" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN33" s="26">
         <v>0.75</v>
       </c>
       <c r="AO33" s="26"/>
       <c r="AP33" s="26"/>
-      <c r="AQ33" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR33" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="AS33" s="42">
-        <v>0.375</v>
-      </c>
-      <c r="AT33" s="43">
+      <c r="AQ33" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR33" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AS33" s="50">
+        <v>0.375</v>
+      </c>
+      <c r="AT33" s="14">
         <v>0.75</v>
       </c>
       <c r="AU33" s="26"/>
       <c r="AV33" s="34"/>
-      <c r="AW33" s="13">
+      <c r="AW33" s="48">
         <v>43524</v>
       </c>
       <c r="AX33" s="18"/>
     </row>
-    <row r="34" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="2"/>
-      <c r="C34" s="49" t="s">
+    <row r="34" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B34" s="45"/>
+      <c r="C34" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="45" t="s">
+      <c r="D34" s="54"/>
+      <c r="E34" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="51" t="s">
+      <c r="F34" s="54"/>
+      <c r="G34" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="47" t="s">
+      <c r="H34" s="56"/>
+      <c r="I34" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="49" t="s">
+      <c r="J34" s="56"/>
+      <c r="K34" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="45" t="s">
+      <c r="L34" s="54"/>
+      <c r="M34" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="49" t="s">
+      <c r="N34" s="54"/>
+      <c r="O34" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="45" t="s">
+      <c r="P34" s="54"/>
+      <c r="Q34" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="46"/>
-      <c r="S34" s="31" t="s">
+      <c r="R34" s="54"/>
+      <c r="S34" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="T34" s="32"/>
-      <c r="U34" s="47" t="s">
+      <c r="T34" s="47"/>
+      <c r="U34" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="V34" s="48"/>
-      <c r="W34" s="49" t="s">
+      <c r="V34" s="56"/>
+      <c r="W34" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="45" t="s">
+      <c r="X34" s="54"/>
+      <c r="Y34" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="49" t="s">
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="45" t="s">
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="49" t="s">
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="45" t="s">
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="49" t="s">
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="50"/>
-      <c r="AK34" s="45" t="s">
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AL34" s="46"/>
-      <c r="AM34" s="49" t="s">
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="45" t="s">
+      <c r="AN34" s="54"/>
+      <c r="AO34" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AP34" s="46"/>
-      <c r="AQ34" s="49" t="s">
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AR34" s="50"/>
-      <c r="AS34" s="45" t="s">
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AT34" s="46"/>
-      <c r="AU34" s="45" t="s">
+      <c r="AT34" s="54"/>
+      <c r="AU34" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
+      <c r="AV34" s="54"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -4704,4 +4722,3808 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="68" orientation="landscape" copies="2" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9414168D-34D1-48E6-BA96-6B4B7012E324}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AX34"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.609375" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="7.609375" style="1"/>
+    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="5.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.609375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="1" customWidth="1"/>
+    <col min="12" max="13" width="5.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" style="1" customWidth="1"/>
+    <col min="16" max="22" width="5.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.609375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.38671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="5.44140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.609375" style="1" customWidth="1"/>
+    <col min="32" max="36" width="5.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="4.609375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="5" style="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5546875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="6" style="1" customWidth="1"/>
+    <col min="41" max="41" width="5.109375" style="1" customWidth="1"/>
+    <col min="42" max="44" width="5" style="1" customWidth="1"/>
+    <col min="45" max="45" width="4.44140625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="5" style="1" customWidth="1"/>
+    <col min="47" max="47" width="4.44140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="5" style="1" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="7.609375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:50" x14ac:dyDescent="0.7">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="63">
+        <v>43497</v>
+      </c>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="2"/>
+      <c r="C3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="60"/>
+      <c r="M3" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="54"/>
+      <c r="O3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="54"/>
+      <c r="S3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="32"/>
+      <c r="U3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="56"/>
+      <c r="W3" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+    </row>
+    <row r="4" spans="2:50" x14ac:dyDescent="0.7">
+      <c r="B4" s="2"/>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="20">
+        <v>2</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>2</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="20">
+        <v>2</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="20">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="22">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="20">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="22">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="20">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="22">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="20">
+        <v>4</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="22">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="20">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="22">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="22">
+        <v>5</v>
+      </c>
+      <c r="AV4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="7"/>
+    </row>
+    <row r="5" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+    </row>
+    <row r="6" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B6" s="13">
+        <v>43497</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="O6" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P6" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S6" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T6" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X6" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB6" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC6" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE6" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF6" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG6" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI6" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ6" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK6" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL6" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM6" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN6" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO6" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP6" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="AQ6" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR6" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS6" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT6" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="13">
+        <v>43497</v>
+      </c>
+      <c r="AX6" s="16"/>
+    </row>
+    <row r="7" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B7" s="13">
+        <v>43498</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P7" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R7" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V7" s="26">
+        <v>0.6875</v>
+      </c>
+      <c r="W7" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X7" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z7" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD7" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ7" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN7" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR7" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AV7" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AW7" s="13">
+        <v>43498</v>
+      </c>
+      <c r="AX7" s="16"/>
+    </row>
+    <row r="8" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B8" s="13">
+        <v>43499</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R8" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AH8" s="26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI8" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ8" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN8" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO8" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP8" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="AQ8" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR8" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="26"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="13">
+        <v>43499</v>
+      </c>
+      <c r="AX8" s="16"/>
+    </row>
+    <row r="9" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B9" s="13">
+        <v>43500</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N9" s="36">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R9" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S9" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T9" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U9" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V9" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W9" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X9" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z9" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA9" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB9" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC9" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD9" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE9" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF9" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG9" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH9" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI9" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ9" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK9" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL9" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM9" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN9" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO9" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP9" s="36">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ9" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR9" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS9" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT9" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="13">
+        <v>43500</v>
+      </c>
+      <c r="AX9" s="16"/>
+    </row>
+    <row r="10" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B10" s="13">
+        <v>43501</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P10" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T10" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U10" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V10" s="26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X10" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA10" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC10" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD10" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH10" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL10" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT10" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="13">
+        <v>43501</v>
+      </c>
+      <c r="AX10" s="18"/>
+    </row>
+    <row r="11" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B11" s="13">
+        <v>43502</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L11" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O11" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P11" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T11" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X11" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD11" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE11" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF11" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG11" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH11" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI11" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ11" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP11" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="13">
+        <v>43502</v>
+      </c>
+      <c r="AX11" s="16"/>
+    </row>
+    <row r="12" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B12" s="13">
+        <v>43503</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T12" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U12" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V12" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W12" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X12" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AC12" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD12" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF12" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG12" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH12" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI12" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ12" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK12" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL12" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT12" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="13">
+        <v>43503</v>
+      </c>
+      <c r="AX12" s="16"/>
+    </row>
+    <row r="13" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B13" s="13">
+        <v>43504</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M13" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N13" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O13" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P13" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R13" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S13" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T13" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U13" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V13" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X13" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB13" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC13" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD13" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE13" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF13" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG13" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH13" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI13" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ13" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK13" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL13" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM13" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN13" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO13" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP13" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ13" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR13" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS13" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT13" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="13">
+        <v>43504</v>
+      </c>
+      <c r="AX13" s="16"/>
+    </row>
+    <row r="14" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B14" s="13">
+        <v>43505</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P14" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V14" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD14" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ14" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN14" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR14" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AV14" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>43505</v>
+      </c>
+      <c r="AX14" s="16"/>
+    </row>
+    <row r="15" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B15" s="13">
+        <v>43506</v>
+      </c>
+      <c r="C15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="P15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="R15" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="S15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="T15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="U15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V15" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="W15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="X15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Y15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AA15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="AB15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AC15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD15" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AE15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AG15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AH15" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AI15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="AJ15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AK15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AL15" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AM15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="AN15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AO15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AP15" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="AR15" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AS15" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AT15" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="13">
+        <v>43506</v>
+      </c>
+      <c r="AX15" s="18"/>
+    </row>
+    <row r="16" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B16" s="13">
+        <v>43507</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R16" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V16" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ16" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN16" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR16" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="13">
+        <v>43507</v>
+      </c>
+      <c r="AX16" s="18"/>
+    </row>
+    <row r="17" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B17" s="13">
+        <v>43508</v>
+      </c>
+      <c r="C17" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L17" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P17" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T17" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U17" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V17" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W17" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X17" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y17" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z17" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA17" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB17" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC17" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD17" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH17" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI17" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ17" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="AK17" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL17" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM17" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN17" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT17" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="13">
+        <v>43508</v>
+      </c>
+      <c r="AX17" s="16"/>
+    </row>
+    <row r="18" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B18" s="13">
+        <v>43509</v>
+      </c>
+      <c r="C18" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L18" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N18" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O18" s="36">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P18" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T18" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X18" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y18" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z18" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA18" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB18" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC18" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD18" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE18" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF18" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG18" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH18" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL18" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP18" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT18" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="13">
+        <v>43509</v>
+      </c>
+      <c r="AX18" s="18"/>
+    </row>
+    <row r="19" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B19" s="13">
+        <v>43510</v>
+      </c>
+      <c r="C19" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R19" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S19" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T19" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U19" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V19" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W19" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X19" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z19" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA19" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB19" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AC19" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD19" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE19" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF19" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG19" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH19" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI19" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ19" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK19" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL19" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR19" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS19" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT19" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="13">
+        <v>43510</v>
+      </c>
+      <c r="AX19" s="18"/>
+    </row>
+    <row r="20" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B20" s="13">
+        <v>43511</v>
+      </c>
+      <c r="C20" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L20" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M20" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N20" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O20" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P20" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R20" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S20" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T20" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U20" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V20" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W20" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X20" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB20" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC20" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD20" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE20" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF20" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG20" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH20" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI20" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ20" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK20" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL20" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM20" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN20" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO20" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP20" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ20" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR20" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS20" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT20" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="34"/>
+      <c r="AW20" s="13">
+        <v>43511</v>
+      </c>
+      <c r="AX20" s="16"/>
+    </row>
+    <row r="21" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B21" s="13">
+        <v>43512</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J21" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P21" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R21" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V21" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W21" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X21" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y21" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z21" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD21" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ21" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN21" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR21" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AV21" s="34">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AW21" s="13">
+        <v>43512</v>
+      </c>
+      <c r="AX21" s="18"/>
+    </row>
+    <row r="22" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B22" s="13">
+        <v>43513</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R22" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ22" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN22" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO22" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP22" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ22" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR22" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="34"/>
+      <c r="AW22" s="13">
+        <v>43513</v>
+      </c>
+      <c r="AX22" s="18"/>
+    </row>
+    <row r="23" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B23" s="13">
+        <v>43514</v>
+      </c>
+      <c r="C23" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L23" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N23" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R23" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S23" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T23" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U23" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V23" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W23" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X23" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB23" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC23" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD23" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE23" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF23" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG23" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH23" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI23" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ23" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK23" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL23" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM23" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN23" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO23" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP23" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ23" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR23" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS23" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT23" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="34"/>
+      <c r="AW23" s="13">
+        <v>43514</v>
+      </c>
+      <c r="AX23" s="18"/>
+    </row>
+    <row r="24" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B24" s="13">
+        <v>43515</v>
+      </c>
+      <c r="C24" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L24" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P24" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T24" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U24" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V24" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W24" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X24" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z24" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA24" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB24" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC24" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD24" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH24" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI24" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ24" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK24" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL24" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT24" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="13">
+        <v>43515</v>
+      </c>
+      <c r="AX24" s="16"/>
+    </row>
+    <row r="25" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B25" s="13">
+        <v>43516</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H25" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O25" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P25" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T25" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U25" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V25" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z25" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD25" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE25" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF25" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG25" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH25" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP25" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="34"/>
+      <c r="AW25" s="13">
+        <v>43516</v>
+      </c>
+      <c r="AX25" s="18"/>
+    </row>
+    <row r="26" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B26" s="13">
+        <v>43517</v>
+      </c>
+      <c r="C26" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H26" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I26" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J26" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K26" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R26" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S26" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T26" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U26" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V26" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W26" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X26" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y26" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z26" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA26" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB26" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AC26" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD26" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE26" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF26" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG26" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH26" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI26" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ26" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK26" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL26" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM26" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN26" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR26" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS26" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT26" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="13">
+        <v>43517</v>
+      </c>
+      <c r="AX26" s="18"/>
+    </row>
+    <row r="27" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B27" s="13">
+        <v>43518</v>
+      </c>
+      <c r="C27" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H27" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L27" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M27" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N27" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O27" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P27" s="36">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R27" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S27" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T27" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U27" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V27" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W27" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X27" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB27" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC27" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD27" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE27" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF27" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG27" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH27" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI27" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ27" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK27" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL27" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM27" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN27" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO27" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP27" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ27" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR27" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS27" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT27" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="34"/>
+      <c r="AW27" s="13">
+        <v>43518</v>
+      </c>
+      <c r="AX27" s="16"/>
+    </row>
+    <row r="28" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B28" s="13">
+        <v>43519</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P28" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R28" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V28" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W28" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X28" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y28" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z28" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD28" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ28" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN28" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR28" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="13">
+        <v>43519</v>
+      </c>
+      <c r="AX28" s="16"/>
+    </row>
+    <row r="29" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B29" s="13">
+        <v>43520</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N29" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R29" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z29" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ29" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN29" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO29" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP29" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ29" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR29" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="13">
+        <v>43520</v>
+      </c>
+      <c r="AX29" s="18"/>
+    </row>
+    <row r="30" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B30" s="13">
+        <v>43521</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H30" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I30" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J30" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K30" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M30" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N30" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O30" s="36">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P30" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R30" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S30" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T30" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U30" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V30" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W30" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X30" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y30" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z30" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA30" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB30" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC30" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD30" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE30" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF30" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG30" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH30" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI30" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ30" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK30" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL30" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM30" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN30" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO30" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP30" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ30" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR30" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS30" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT30" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="34"/>
+      <c r="AW30" s="13">
+        <v>43521</v>
+      </c>
+      <c r="AX30" s="18"/>
+    </row>
+    <row r="31" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B31" s="13">
+        <v>43522</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H31" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I31" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J31" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L31" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M31" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N31" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T31" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U31" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V31" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W31" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X31" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB31" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AC31" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD31" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE31" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF31" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG31" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH31" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI31" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ31" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK31" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AL31" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP31" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="AT31" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="13">
+        <v>43522</v>
+      </c>
+      <c r="AX31" s="16"/>
+    </row>
+    <row r="32" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B32" s="13">
+        <v>43523</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I32" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J32" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M32" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O32" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P32" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T32" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X32" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y32" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z32" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD32" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE32" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF32" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG32" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH32" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AP32" s="26">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="42"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="34"/>
+      <c r="AW32" s="13">
+        <v>43523</v>
+      </c>
+      <c r="AX32" s="18"/>
+    </row>
+    <row r="33" spans="2:50" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B33" s="13">
+        <v>43524</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H33" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J33" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="K33" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="L33" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R33" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="S33" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="T33" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="U33" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="V33" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="W33" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="X33" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Y33" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Z33" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AA33" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="AB33" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AC33" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="AD33" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AE33" s="29">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AF33" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="AG33" s="26">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AH33" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="AI33" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ33" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AK33" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="AL33" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="AM33" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN33" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR33" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="AS33" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="AT33" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="34"/>
+      <c r="AW33" s="13">
+        <v>43524</v>
+      </c>
+      <c r="AX33" s="18"/>
+    </row>
+    <row r="34" spans="2:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B34" s="2"/>
+      <c r="C34" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="E34" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="54"/>
+      <c r="G34" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="62"/>
+      <c r="I34" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="56"/>
+      <c r="K34" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="60"/>
+      <c r="M34" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="54"/>
+      <c r="O34" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="54"/>
+      <c r="S34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="T34" s="32"/>
+      <c r="U34" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" s="56"/>
+      <c r="W34" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ34" s="60"/>
+      <c r="AK34" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR34" s="60"/>
+      <c r="AS34" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT34" s="54"/>
+      <c r="AU34" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV34" s="54"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AU34:AV34"/>
+    <mergeCell ref="AW34:AX34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AQ34:AR34"/>
+    <mergeCell ref="AS34:AT34"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="68" orientation="landscape" copies="2" r:id="rId1"/>
+</worksheet>
 </file>